--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46A2E1-FBE8-47D4-82AA-848E0040D867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA61F48-69B2-435C-9324-E03626278801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="TC1" sheetId="2" r:id="rId2"/>
     <sheet name="TC2" sheetId="3" r:id="rId3"/>
+    <sheet name="TC3" sheetId="4" r:id="rId4"/>
+    <sheet name="TC4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="116">
   <si>
     <t>Section</t>
   </si>
@@ -87,9 +89,6 @@
     <t>Verify that you can login with valid credentials</t>
   </si>
   <si>
-    <t>Verify that you can not login with invalid credentials</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
@@ -103,9 +102,6 @@
   </si>
   <si>
     <t>The page opens</t>
-  </si>
-  <si>
-    <t>Precondition: you are registred</t>
   </si>
   <si>
     <t>Click on "Sign in" option at the right top corner of the
@@ -225,9 +221,6 @@
     <t>ID:7</t>
   </si>
   <si>
-    <t>Precondition:TC1/ID:1</t>
-  </si>
-  <si>
     <t>Find the section where your address is showing and click on 
 "Add a new address" button</t>
   </si>
@@ -253,9 +246,6 @@
     <t>The state is chosen and its name is visible</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Find the field "Zip/Postal code" and enter the postal code</t>
   </si>
   <si>
@@ -286,9 +276,6 @@
     <t>ID:8</t>
   </si>
   <si>
-    <t>Precondition: TC1/ID:1; you have two addresses in your profile</t>
-  </si>
-  <si>
     <t>Find the section "MY ADDRESES 2" and click on the button "Delete"</t>
   </si>
   <si>
@@ -298,10 +285,113 @@
     <t>Click on the "OK" button in the alert message</t>
   </si>
   <si>
-    <t>The addres is deleted and the other address is visible</t>
-  </si>
-  <si>
-    <t>Precondition: You are logged in/TC1-ID:1</t>
+    <t>Precondition: The user is registered</t>
+  </si>
+  <si>
+    <t>Verify that you can not login with invalid username</t>
+  </si>
+  <si>
+    <t>Verify that you can not login with invalid password</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in/TC1-ID:1</t>
+  </si>
+  <si>
+    <t>Precondition:The user is logged in/TC1-ID:1</t>
+  </si>
+  <si>
+    <t>ID:9</t>
+  </si>
+  <si>
+    <t>Click on the "Update button"</t>
+  </si>
+  <si>
+    <t>Find the field "Address" and input the previous address</t>
+  </si>
+  <si>
+    <t>Green Street 185</t>
+  </si>
+  <si>
+    <t>The address is deleted and the other address is visible</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in/TC1-ID:1; There are two addresses at the profile</t>
+  </si>
+  <si>
+    <t>My Personal Information</t>
+  </si>
+  <si>
+    <t>Verify that you can edit your personal information</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>ID:10</t>
+  </si>
+  <si>
+    <t>Click on the section "MY PERSONAL INFORMATION"</t>
+  </si>
+  <si>
+    <t>"YOUR PERSONAL INFORMATION" section is opened</t>
+  </si>
+  <si>
+    <t>Find the field "Last name" and input new data</t>
+  </si>
+  <si>
+    <t>New data - new last name is entered and visible</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Click the green button "Save"</t>
+  </si>
+  <si>
+    <t>Find the field "Current Password" and input the password</t>
+  </si>
+  <si>
+    <t>Current password is entered and it is not visible</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>The notification "Your personal information has 
+been successfully updated."</t>
+  </si>
+  <si>
+    <t>Verify that you can add wish list</t>
+  </si>
+  <si>
+    <t>Verify that you can add multiple wish lists</t>
+  </si>
+  <si>
+    <t>Verify that you can remove wish list</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Click on the section "MY WISHLIST"</t>
+  </si>
+  <si>
+    <t>My Wishlist section</t>
+  </si>
+  <si>
+    <t>The section "MYWISHLISTS" is opened</t>
+  </si>
+  <si>
+    <t>Find the section "NEW WISHLIST" and enter the name of the wishlist in the field "Name"</t>
+  </si>
+  <si>
+    <t>The name of the new wishlist is entered and it is visible</t>
+  </si>
+  <si>
+    <t>My birthday</t>
+  </si>
+  <si>
+    <t>Under the section for creating new wishlist there is a section with the information about the wish list that you have created</t>
   </si>
 </sst>
 </file>
@@ -735,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0186F-2AF6-4127-BEE3-3406B6AAFECD}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,7 +871,7 @@
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -790,16 +880,16 @@
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -807,59 +897,85 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>15</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,12 +991,12 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1237,6 +1353,11 @@
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="E89" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1246,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63A047-E3AB-4F76-8A40-CE3DEC8B9983}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1401,7 @@
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1324,10 +1445,10 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>11</v>
@@ -1337,10 +1458,10 @@
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
@@ -1348,10 +1469,10 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -1359,13 +1480,13 @@
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -1373,13 +1494,13 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>11</v>
@@ -1387,10 +1508,10 @@
     </row>
     <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
@@ -1398,10 +1519,10 @@
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1410,7 +1531,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1448,10 +1569,10 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>11</v>
@@ -1459,10 +1580,10 @@
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>11</v>
@@ -1470,10 +1591,10 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
@@ -1481,13 +1602,13 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>11</v>
@@ -1495,13 +1616,13 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>11</v>
@@ -1509,13 +1630,13 @@
     </row>
     <row r="20" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>11</v>
@@ -1523,10 +1644,10 @@
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1535,7 +1656,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1573,10 +1694,10 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>11</v>
@@ -1584,10 +1705,10 @@
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>11</v>
@@ -1595,93 +1716,102 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="34" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>11</v>
@@ -1689,96 +1819,93 @@
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="12" t="s">
+    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+    <row r="42" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>11</v>
@@ -1786,24 +1913,21 @@
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>30</v>
+    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>11</v>
@@ -1811,37 +1935,159 @@
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="F56" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1849,19 +2095,20 @@
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{95DB90DB-61CF-45FC-9B12-56B184151D5F}"/>
     <hyperlink ref="D18" r:id="rId2" xr:uid="{48F4ADB0-061D-4857-BFF4-34FF34476178}"/>
-    <hyperlink ref="D44" r:id="rId3" xr:uid="{48B93AE4-ABB6-4CDA-A840-E20A367F4D7B}"/>
+    <hyperlink ref="D54" r:id="rId3" xr:uid="{48B93AE4-ABB6-4CDA-A840-E20A367F4D7B}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{44A330BD-0440-40B4-819A-7F6C8DD707E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,10 +2122,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1887,7 +2134,7 @@
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1915,10 +2162,10 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1929,10 +2176,10 @@
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1943,13 +2190,13 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10" t="s">
@@ -1959,129 +2206,121 @@
     <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="10" t="s">
         <v>11</v>
@@ -2090,13 +2329,13 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3">
-        <v>21458</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10" t="s">
@@ -2106,318 +2345,548 @@
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="3">
-        <v>456156423</v>
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21458</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>80</v>
-      </c>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3">
+        <v>456156423</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="3">
-        <v>21458</v>
-      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="3">
-        <v>456156423</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28EBA69-A8D6-4BC1-83C9-6BF53B471703}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FDE8B5-28E1-4953-A99F-1AEB82CAC5BE}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA61F48-69B2-435C-9324-E03626278801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7D2F7-F8CC-40D1-ACDE-DE21985FA748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
   <si>
     <t>Section</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Current password is entered and it is not visible</t>
   </si>
   <si>
-    <t>Your personal information has been successfully updated.</t>
-  </si>
-  <si>
     <t>The notification "Your personal information has 
 been successfully updated."</t>
   </si>
@@ -392,6 +389,41 @@
   </si>
   <si>
     <t>Under the section for creating new wishlist there is a section with the information about the wish list that you have created</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in/TC1-ID:1
+The user already has at least one wishlist</t>
+  </si>
+  <si>
+    <t>New collection</t>
+  </si>
+  <si>
+    <t>The table with the information of your wish list/s is present</t>
+  </si>
+  <si>
+    <t>Click on the "X" button in the lost column of the wishlist table</t>
+  </si>
+  <si>
+    <t>The alert message pop ups where you can confirm or cancel the removal of the wish list</t>
+  </si>
+  <si>
+    <t>Confirm the removal of the wishlist by clicking on the button "OK"</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in/TC1-ID:1
+The user already has at least two wishlists</t>
+  </si>
+  <si>
+    <t>Find the table with the information of your wishlists</t>
+  </si>
+  <si>
+    <t>The wishlist is removed, the remaining wish list is visible and you can add new wishlist</t>
+  </si>
+  <si>
+    <t>Sandy Maven</t>
+  </si>
+  <si>
+    <t>Bell</t>
   </si>
 </sst>
 </file>
@@ -828,7 +860,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,31 +982,31 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1369,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63A047-E3AB-4F76-8A40-CE3DEC8B9983}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
@@ -1859,6 +1891,9 @@
       </c>
       <c r="E38" s="12" t="s">
         <v>37</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -2107,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2629,13 +2664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28EBA69-A8D6-4BC1-83C9-6BF53B471703}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="57.140625" customWidth="1"/>
@@ -2690,7 +2725,9 @@
       <c r="C4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10" t="s">
         <v>11</v>
@@ -2734,13 +2771,15 @@
         <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -2748,11 +2787,13 @@
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2782,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FDE8B5-28E1-4953-A99F-1AEB82CAC5BE}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2843,7 @@
         <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2839,10 +2880,10 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2853,13 +2894,13 @@
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -2872,21 +2913,191 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7D2F7-F8CC-40D1-ACDE-DE21985FA748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40051D72-87D7-4ECD-BBF7-F18CC994DF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
   <si>
     <t>Section</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Bell</t>
+  </si>
+  <si>
+    <t>Sandy Bell</t>
   </si>
 </sst>
 </file>
@@ -2142,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,6 +2660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2664,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28EBA69-A8D6-4BC1-83C9-6BF53B471703}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2732,9 @@
       <c r="D4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>11</v>
       </c>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40051D72-87D7-4ECD-BBF7-F18CC994DF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE865CF-6785-4628-BCCF-83F5230897ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
-    <sheet name="TC1" sheetId="2" r:id="rId2"/>
-    <sheet name="TC2" sheetId="3" r:id="rId3"/>
-    <sheet name="TC3" sheetId="4" r:id="rId4"/>
-    <sheet name="TC4" sheetId="5" r:id="rId5"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="MyAddress" sheetId="3" r:id="rId3"/>
+    <sheet name="MyPersonalInformation" sheetId="4" r:id="rId4"/>
+    <sheet name="Wishlist" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="128">
   <si>
     <t>Section</t>
   </si>
@@ -83,22 +83,13 @@
     <t>Login section</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
     <t>Verify that you can login with valid credentials</t>
   </si>
   <si>
-    <t>TC2</t>
-  </si>
-  <si>
     <t>Verify that you can not login with empty credentials</t>
   </si>
   <si>
     <t>Verify that you can log out</t>
-  </si>
-  <si>
-    <t>Go to the "http://automationpractice.com/index.php/"</t>
   </si>
   <si>
     <t>The page opens</t>
@@ -151,9 +142,6 @@
     <t>mark.johanson@fakemail.com</t>
   </si>
   <si>
-    <t>There is 1 error</t>
-  </si>
-  <si>
     <t>ID:3</t>
   </si>
   <si>
@@ -294,12 +282,6 @@
     <t>Verify that you can not login with invalid password</t>
   </si>
   <si>
-    <t>Precondition: The user is logged in/TC1-ID:1</t>
-  </si>
-  <si>
-    <t>Precondition:The user is logged in/TC1-ID:1</t>
-  </si>
-  <si>
     <t>ID:9</t>
   </si>
   <si>
@@ -315,16 +297,10 @@
     <t>The address is deleted and the other address is visible</t>
   </si>
   <si>
-    <t>Precondition: The user is logged in/TC1-ID:1; There are two addresses at the profile</t>
-  </si>
-  <si>
     <t>My Personal Information</t>
   </si>
   <si>
     <t>Verify that you can edit your personal information</t>
-  </si>
-  <si>
-    <t>TC3</t>
   </si>
   <si>
     <t>ID:10</t>
@@ -367,9 +343,6 @@
     <t>Verify that you can remove wish list</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
     <t>Click on the section "MY WISHLIST"</t>
   </si>
   <si>
@@ -391,42 +364,75 @@
     <t>Under the section for creating new wishlist there is a section with the information about the wish list that you have created</t>
   </si>
   <si>
-    <t>Precondition: The user is logged in/TC1-ID:1
+    <t>New collection</t>
+  </si>
+  <si>
+    <t>The table with the information of your wish list/s is present</t>
+  </si>
+  <si>
+    <t>Click on the "X" button in the lost column of the wishlist table</t>
+  </si>
+  <si>
+    <t>The alert message pop ups where you can confirm or cancel the removal of the wish list</t>
+  </si>
+  <si>
+    <t>Confirm the removal of the wishlist by clicking on the button "OK"</t>
+  </si>
+  <si>
+    <t>Find the table with the information of your wishlists</t>
+  </si>
+  <si>
+    <t>The wishlist is removed, the remaining wish list is visible and you can add new wishlist</t>
+  </si>
+  <si>
+    <t>Sandy Maven</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Sandy Bell</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>MyAddress</t>
+  </si>
+  <si>
+    <t>MyPersonalInformation</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in
+The user has one address</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in 
+There are two addresses at the profile</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in
 The user already has at least one wishlist</t>
   </si>
   <si>
-    <t>New collection</t>
-  </si>
-  <si>
-    <t>The table with the information of your wish list/s is present</t>
-  </si>
-  <si>
-    <t>Click on the "X" button in the lost column of the wishlist table</t>
-  </si>
-  <si>
-    <t>The alert message pop ups where you can confirm or cancel the removal of the wish list</t>
-  </si>
-  <si>
-    <t>Confirm the removal of the wishlist by clicking on the button "OK"</t>
-  </si>
-  <si>
-    <t>Precondition: The user is logged in/TC1-ID:1
-The user already has at least two wishlists</t>
-  </si>
-  <si>
-    <t>Find the table with the information of your wishlists</t>
-  </si>
-  <si>
-    <t>The wishlist is removed, the remaining wish list is visible and you can add new wishlist</t>
-  </si>
-  <si>
-    <t>Sandy Maven</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Sandy Bell</t>
+    <t>Precondition: The user is logged in
+The user has two wishlists</t>
+  </si>
+  <si>
+    <t>Precondition:The user is logged in
+The user has one address</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>Go to the URL</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +551,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,14 +872,14 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -897,119 +906,119 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1404,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63A047-E3AB-4F76-8A40-CE3DEC8B9983}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1422,8 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="46.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50" style="3" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33" style="3" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
@@ -1425,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1436,7 +1446,7 @@
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1480,10 +1490,13 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>11</v>
@@ -1493,10 +1506,10 @@
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
@@ -1504,10 +1517,10 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -1515,13 +1528,13 @@
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -1529,13 +1542,13 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>11</v>
@@ -1543,10 +1556,10 @@
     </row>
     <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
@@ -1554,10 +1567,10 @@
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1566,7 +1579,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1604,10 +1617,13 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>11</v>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>11</v>
@@ -1626,10 +1642,10 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
@@ -1637,13 +1653,13 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>11</v>
@@ -1651,13 +1667,13 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>11</v>
@@ -1665,24 +1681,22 @@
     </row>
     <row r="20" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1691,7 +1705,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1729,10 +1743,13 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>11</v>
@@ -1740,10 +1757,10 @@
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>11</v>
@@ -1751,10 +1768,10 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>11</v>
@@ -1762,13 +1779,13 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>11</v>
@@ -1776,13 +1793,13 @@
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>11</v>
@@ -1790,24 +1807,22 @@
     </row>
     <row r="30" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1816,7 +1831,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1854,10 +1869,13 @@
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>11</v>
@@ -1865,10 +1883,10 @@
     </row>
     <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>11</v>
@@ -1876,10 +1894,10 @@
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>11</v>
@@ -1887,24 +1905,22 @@
     </row>
     <row r="38" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E38" s="13"/>
       <c r="F38" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1913,7 +1929,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1951,10 +1967,13 @@
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>11</v>
@@ -1962,10 +1981,10 @@
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>11</v>
@@ -1973,10 +1992,10 @@
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>11</v>
@@ -1984,24 +2003,22 @@
     </row>
     <row r="46" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E46" s="12"/>
       <c r="F46" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2010,7 +2027,7 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2048,10 +2065,13 @@
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>11</v>
@@ -2059,10 +2079,10 @@
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>11</v>
@@ -2070,10 +2090,10 @@
     </row>
     <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>11</v>
@@ -2081,13 +2101,13 @@
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>11</v>
@@ -2095,13 +2115,13 @@
     </row>
     <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>11</v>
@@ -2109,10 +2129,10 @@
     </row>
     <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>11</v>
@@ -2120,10 +2140,10 @@
     </row>
     <row r="57" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>11</v>
@@ -2145,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,19 +2180,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2200,10 +2220,10 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2214,10 +2234,10 @@
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2228,13 +2248,13 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10" t="s">
@@ -2244,14 +2264,14 @@
     <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -2260,10 +2280,10 @@
     <row r="8" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2272,13 +2292,13 @@
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
@@ -2286,32 +2306,32 @@
     <row r="10" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2339,10 +2359,10 @@
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2353,10 +2373,10 @@
     <row r="15" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2367,13 +2387,13 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10" t="s">
@@ -2383,13 +2403,13 @@
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="10" t="s">
@@ -2399,10 +2419,10 @@
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2413,10 +2433,10 @@
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3">
         <v>21458</v>
@@ -2429,10 +2449,10 @@
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3">
         <v>456156423</v>
@@ -2445,13 +2465,13 @@
     <row r="21" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="10" t="s">
@@ -2461,14 +2481,14 @@
     <row r="22" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>11</v>
@@ -2476,10 +2496,10 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2488,7 +2508,7 @@
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2516,10 +2536,10 @@
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2530,10 +2550,10 @@
     <row r="27" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2544,10 +2564,10 @@
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2669,7 +2689,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,19 +2704,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2724,16 +2744,16 @@
     <row r="4" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>11</v>
@@ -2742,13 +2762,13 @@
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -2758,13 +2778,13 @@
     <row r="6" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10" t="s">
@@ -2774,14 +2794,14 @@
     <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -2831,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FDE8B5-28E1-4953-A99F-1AEB82CAC5BE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,10 +2866,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2858,7 +2878,7 @@
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2886,10 +2906,10 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2900,13 +2920,13 @@
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -2916,10 +2936,10 @@
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2929,10 +2949,10 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2941,7 +2961,7 @@
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2969,10 +2989,10 @@
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2983,13 +3003,13 @@
     <row r="11" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="10" t="s">
@@ -2999,10 +3019,10 @@
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3012,10 +3032,10 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3024,7 +3044,7 @@
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3052,10 +3072,10 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3066,10 +3086,10 @@
     <row r="17" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3080,10 +3100,10 @@
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3094,10 +3114,10 @@
     <row r="19" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE865CF-6785-4628-BCCF-83F5230897ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD0AC6-70B1-4C58-BE22-B4ECEB073BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63A047-E3AB-4F76-8A40-CE3DEC8B9983}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="46.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="33" style="3" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
@@ -1495,7 +1495,7 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1748,7 +1748,7 @@
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -1874,7 +1874,7 @@
       <c r="C35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -1972,7 +1972,7 @@
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -2070,7 +2070,7 @@
       <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -2155,9 +2155,14 @@
     <hyperlink ref="D18" r:id="rId2" xr:uid="{48F4ADB0-061D-4857-BFF4-34FF34476178}"/>
     <hyperlink ref="D54" r:id="rId3" xr:uid="{48B93AE4-ABB6-4CDA-A840-E20A367F4D7B}"/>
     <hyperlink ref="D28" r:id="rId4" xr:uid="{44A330BD-0440-40B4-819A-7F6C8DD707E7}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{8988163F-EDE0-4872-BF4B-ED8BAB1F8DA0}"/>
+    <hyperlink ref="D25" r:id="rId6" xr:uid="{393A626D-25EF-4B23-8D74-5E294352EA68}"/>
+    <hyperlink ref="D35" r:id="rId7" xr:uid="{21611EAF-21DA-476D-928E-D8AB4FED4810}"/>
+    <hyperlink ref="D43" r:id="rId8" xr:uid="{EEF11231-309B-4DB7-974B-AC3ACE73FE47}"/>
+    <hyperlink ref="D51" r:id="rId9" xr:uid="{B464C8D9-3F9E-4B9C-B6B3-F4284B3118CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2165,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2694,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FDE8B5-28E1-4953-A99F-1AEB82CAC5BE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD0AC6-70B1-4C58-BE22-B4ECEB073BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A138AB7-7DA2-433A-8B36-B8237CBA9DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MyAddress" sheetId="3" r:id="rId3"/>
     <sheet name="MyPersonalInformation" sheetId="4" r:id="rId4"/>
     <sheet name="Wishlist" sheetId="5" r:id="rId5"/>
+    <sheet name="Cart" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="162">
   <si>
     <t>Section</t>
   </si>
@@ -433,6 +434,110 @@
   </si>
   <si>
     <t>Go to the URL</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Verify that you can add one product</t>
+  </si>
+  <si>
+    <t>Verify that you can add multiple products</t>
+  </si>
+  <si>
+    <t>Verify that you can remove products from cart</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>ID:11</t>
+  </si>
+  <si>
+    <t>ID:12</t>
+  </si>
+  <si>
+    <t>ID:13</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in
+The cart is empty</t>
+  </si>
+  <si>
+    <t>Click on the button "Home"</t>
+  </si>
+  <si>
+    <t>You are transferred to the main page</t>
+  </si>
+  <si>
+    <t>Find the product "Faded Short Sleeve T-shirts" and click on the button "Add to cart"</t>
+  </si>
+  <si>
+    <t>The new window opened with the notification that the product is added to the cart</t>
+  </si>
+  <si>
+    <t>Click on the button "Continue shopping"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is closed, you can see the main page. There is on product in your cart. </t>
+  </si>
+  <si>
+    <t>ID:14</t>
+  </si>
+  <si>
+    <t>ID:15</t>
+  </si>
+  <si>
+    <t>Verify that you can add one product 3 times</t>
+  </si>
+  <si>
+    <t>ID:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is closed, you can see the main page. There is one product in your cart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is closed, you can see the main page. There are two products in your cart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is closed, you can see the main page. There are three products in your cart. </t>
+  </si>
+  <si>
+    <t>Find the product "Blouse" and click on the button "Add to cart"</t>
+  </si>
+  <si>
+    <t>Find the product "Printed Dress" and click on the button "Add to cart"</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Printed Dress</t>
+  </si>
+  <si>
+    <t>Click on the button "Cart"</t>
+  </si>
+  <si>
+    <t>Click on the "Cart" button</t>
+  </si>
+  <si>
+    <t>Precondition: The user is logged in
+The is at least one product in the cart</t>
+  </si>
+  <si>
+    <t>You are transffered to the cart page</t>
+  </si>
+  <si>
+    <t>By clicking on the button for deleting products remove all the product from your cart</t>
+  </si>
+  <si>
+    <t>The cart is empty and there is a notificaton message that your shopping cart is empty</t>
+  </si>
+  <si>
+    <t>You are transferred to the cart page where you can see all the products</t>
   </si>
 </sst>
 </file>
@@ -506,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -514,19 +619,404 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -543,17 +1033,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -871,1284 +1502,1350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0186F-2AF6-4127-BEE3-3406B6AAFECD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="33" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="E58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="E59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-      <c r="E82" s="6"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="E87" s="6"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="E88" s="6"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="E89" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63A047-E3AB-4F76-8A40-CE3DEC8B9983}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="46.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="49.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23" style="61" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="F15" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="F19" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="F25" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="F29" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+      <c r="F35" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="F37" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="F43" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+      <c r="F45" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
+      <c r="F51" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
+      <c r="F56" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{95DB90DB-61CF-45FC-9B12-56B184151D5F}"/>
@@ -2170,518 +2867,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B235CAD-2BD4-482A-9DAB-8116F8ACCF7E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="57.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="57" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>21458</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>456156423</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="F22" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="75"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="10" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2694,157 +3400,157 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="50.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="23" style="72" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2857,276 +3563,763 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="48.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="74" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="75"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B95C4-037E-4B8D-988E-CF6C1E78BD73}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="53.7109375" style="74" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="22" style="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="F13" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
+      <c r="F14" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="75"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E19" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F19" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10" t="s">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="75"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="62" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Data/SeleniumFinalProject.xlsx
+++ b/Data/SeleniumFinalProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedMonster\eclipse-workspace\FinalProject\SeleniumProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A138AB7-7DA2-433A-8B36-B8237CBA9DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B7C89-49D7-4AA7-90A4-B88098C55973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{F75050DC-36F9-4956-BD17-0ADEE7515C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="165">
   <si>
     <t>Section</t>
   </si>
@@ -422,10 +422,6 @@
 The user already has at least one wishlist</t>
   </si>
   <si>
-    <t>Precondition: The user is logged in
-The user has two wishlists</t>
-  </si>
-  <si>
     <t>Precondition:The user is logged in
 The user has one address</t>
   </si>
@@ -518,26 +514,38 @@
     <t>Printed Dress</t>
   </si>
   <si>
-    <t>Click on the button "Cart"</t>
-  </si>
-  <si>
     <t>Click on the "Cart" button</t>
   </si>
   <si>
+    <t>The cart is empty and there is a notificaton message that your shopping cart is empty</t>
+  </si>
+  <si>
+    <t>You are transferred to the cart page where you can see all the products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is closed, you can see the main page. </t>
+  </si>
+  <si>
+    <t>1 Product</t>
+  </si>
+  <si>
+    <t>3 Products</t>
+  </si>
+  <si>
+    <t>You are transferred to order page. You can see the products in your cart.</t>
+  </si>
+  <si>
+    <t>You are transferred to order page. You can see one product in your cart.</t>
+  </si>
+  <si>
+    <t>Click on the button for deleting product from your cart</t>
+  </si>
+  <si>
     <t>Precondition: The user is logged in
-The is at least one product in the cart</t>
-  </si>
-  <si>
-    <t>You are transffered to the cart page</t>
-  </si>
-  <si>
-    <t>By clicking on the button for deleting products remove all the product from your cart</t>
-  </si>
-  <si>
-    <t>The cart is empty and there is a notificaton message that your shopping cart is empty</t>
-  </si>
-  <si>
-    <t>You are transferred to the cart page where you can see all the products</t>
+The user has at least one wishlist</t>
+  </si>
+  <si>
+    <t>Your shopping cart is empty.</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0186F-2AF6-4127-BEE3-3406B6AAFECD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1674,13 +1682,13 @@
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="C14" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
@@ -1688,10 +1696,10 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
@@ -1699,10 +1707,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -1710,10 +1718,10 @@
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>132</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="42"/>
@@ -2167,13 +2175,13 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>11</v>
@@ -2298,13 +2306,13 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>11</v>
@@ -2427,13 +2435,13 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>11</v>
@@ -2556,13 +2564,13 @@
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="57" t="s">
         <v>11</v>
@@ -2657,13 +2665,13 @@
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" s="57" t="s">
         <v>11</v>
@@ -2758,13 +2766,13 @@
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" s="57" t="s">
         <v>11</v>
@@ -3041,7 +3049,7 @@
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -3562,8 +3570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FDE8B5-28E1-4953-A99F-1AEB82CAC5BE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3586,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>96</v>
@@ -3662,7 +3670,7 @@
     </row>
     <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>97</v>
@@ -3746,7 +3754,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>98</v>
@@ -3759,7 +3767,7 @@
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3847,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B95C4-037E-4B8D-988E-CF6C1E78BD73}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3865,10 +3873,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -3878,7 +3886,7 @@
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -3906,10 +3914,10 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3920,10 +3928,10 @@
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3931,81 +3939,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="75"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55" t="s">
+    <row r="6" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F10" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -4016,10 +4026,10 @@
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -4030,10 +4040,10 @@
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4044,10 +4054,10 @@
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4058,10 +4068,10 @@
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4069,13 +4079,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -4083,83 +4093,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="75"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55" t="s">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="75"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D21" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F21" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -4170,14 +4180,14 @@
     <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>11</v>
@@ -4186,10 +4196,10 @@
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -4200,14 +4210,14 @@
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>11</v>
@@ -4216,10 +4226,10 @@
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -4227,103 +4237,166 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="75"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="75"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="62" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="62" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>